--- a/GCS98 switch matrix.xlsx
+++ b/GCS98 switch matrix.xlsx
@@ -97,16 +97,16 @@
     <t xml:space="preserve">BKSPC</t>
   </si>
   <si>
-    <t xml:space="preserve">DECML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIV</t>
+    <t xml:space="preserve">MOP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOP4</t>
   </si>
   <si>
     <t xml:space="preserve">TAB</t>
@@ -414,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,6 +440,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,9 +530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>215640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -542,7 +546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9564120" cy="3469320"/>
+          <a:ext cx="9574560" cy="3468960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,11 +568,11 @@
   </sheetPr>
   <dimension ref="A8:T52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U45" activeCellId="0" sqref="U45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="7.8"/>
   </cols>
@@ -1003,50 +1007,50 @@
       <c r="T30" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -1473,50 +1477,50 @@
       <c r="T41" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>

--- a/GCS98 switch matrix.xlsx
+++ b/GCS98 switch matrix.xlsx
@@ -319,7 +319,7 @@
     <t xml:space="preserve">6.25U</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation map in kicad schematic (MX#/D#)</t>
+    <t xml:space="preserve">Schematic ref des</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
   </sheetPr>
   <dimension ref="A8:T52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M48" activeCellId="0" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
